--- a/static/download/2014/RP1_TR_CEF_2014.xlsx
+++ b/static/download/2014/RP1_TR_CEF_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TR_CEF" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Data source</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -34,7 +37,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -89,8 +92,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -141,7 +144,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -191,6 +195,34 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -286,100 +318,108 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,12 +429,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -403,14 +446,14 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="11.14"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="13.86"/>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.75"/>
+    <col customWidth="1" min="4" max="4" width="14.13"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="12.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -429,34 +472,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Terminal_air_navigation_service_costs_and_unit_rates","Terminal air navigation service costs and unit rates")</f>
-        <v>Terminal air navigation service costs and unit rates</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>42334.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>42004.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -468,7 +510,7 @@
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
@@ -476,25 +518,25 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="21"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="23">
         <v>2009.0</v>
@@ -512,7 +554,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="23">
         <v>2010.0</v>
@@ -524,7 +566,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="23">
         <v>2011.0</v>
@@ -538,7 +580,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="23">
         <v>2012.0</v>
@@ -556,7 +598,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="23">
         <v>2013.0</v>
@@ -574,7 +616,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="32">
         <v>2014.0</v>
